--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3443530.223911751</v>
+        <v>3445290.754214536</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7944219.269877936</v>
+        <v>7944219.269877937</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50.48273419507654</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="U2" t="n">
-        <v>25.15787082233985</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.28182508062843</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,67 +746,67 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>44.46519227902342</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="H3" t="n">
-        <v>44.46519227902342</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="Y3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>47.38379687733242</v>
+      </c>
+      <c r="G5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="D5" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="T5" t="n">
-        <v>25.3458026083015</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>53.79631798062264</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>47.3837968773324</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>53.79631798062264</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>170.1331892653147</v>
       </c>
       <c r="E8" t="n">
-        <v>80.34349396157593</v>
+        <v>170.1331892653147</v>
       </c>
       <c r="F8" t="n">
-        <v>170.1331892653134</v>
+        <v>170.1331892653147</v>
       </c>
       <c r="G8" t="n">
-        <v>13.80371436173803</v>
+        <v>13.80371436173801</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157401</v>
+        <v>55.70610478157315</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>170.1331892653134</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.1331892653134</v>
+        <v>80.34349396157803</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.96033322209118</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>170.1331892653134</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.947545863132167</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.36049712271153</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.785479501566</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.0997643062583</v>
+        <v>168.0997643062638</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983116051</v>
+        <v>29.85685983115999</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>141.6930519056948</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>218.6444667192159</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>51.36569740310382</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>50.06209150957563</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>126.632153562788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722604</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>95.05806357631816</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634836</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>31.26260713376568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012179</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>244.9804176899991</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576163</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784692</v>
+        <v>369.7311006784685</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085811746</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016448</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272885</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.584653352095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695545</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576163</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>120.7871326503943</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182126</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986279</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>43.7384661432538</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758615</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>6.600826611594925</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176.5189460506699</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="C2" t="n">
-        <v>176.5189460506699</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="D2" t="n">
-        <v>176.5189460506699</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="E2" t="n">
-        <v>125.5262852475623</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="F2" t="n">
         <v>74.5336244444547</v>
@@ -4336,13 +4336,13 @@
         <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>54.01652558873189</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="M2" t="n">
-        <v>54.01652558873189</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="N2" t="n">
-        <v>101.9751230740546</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O2" t="n">
         <v>151.9530299271804</v>
@@ -4360,22 +4360,22 @@
         <v>201.9309367803062</v>
       </c>
       <c r="T2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5189460506699</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V2" t="n">
-        <v>176.5189460506699</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="W2" t="n">
-        <v>176.5189460506699</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="X2" t="n">
-        <v>176.5189460506699</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.5189460506699</v>
+        <v>81.47912519365818</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="C3" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="D3" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="E3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4412,10 +4412,10 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.038618735606123</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="L3" t="n">
-        <v>4.038618735606123</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M3" t="n">
         <v>54.01652558873189</v>
@@ -4424,7 +4424,7 @@
         <v>54.01652558873189</v>
       </c>
       <c r="O3" t="n">
-        <v>103.9944324418577</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="P3" t="n">
         <v>151.9530299271804</v>
@@ -4433,28 +4433,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="X3" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
     </row>
     <row r="4">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.2437359740823</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="C5" t="n">
-        <v>80.90402084214027</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="D5" t="n">
-        <v>26.56430571019821</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="E5" t="n">
-        <v>26.56430571019821</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="F5" t="n">
-        <v>19.61880496099473</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="G5" t="n">
         <v>4.303705438449811</v>
@@ -4570,16 +4570,16 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>55.4102075200413</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
-        <v>55.4102075200413</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="M5" t="n">
         <v>108.6685623208577</v>
       </c>
       <c r="N5" t="n">
-        <v>108.6685623208577</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="O5" t="n">
         <v>161.9269171216741</v>
@@ -4594,25 +4594,25 @@
         <v>160.8455567905485</v>
       </c>
       <c r="S5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="T5" t="n">
-        <v>135.2437359740823</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="U5" t="n">
-        <v>135.2437359740823</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="V5" t="n">
-        <v>135.2437359740823</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="W5" t="n">
-        <v>135.2437359740823</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="X5" t="n">
-        <v>135.2437359740823</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.2437359740823</v>
+        <v>106.5058416586064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.64342057039187</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="C6" t="n">
-        <v>58.64342057039187</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="D6" t="n">
-        <v>58.64342057039187</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="E6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G6" t="n">
         <v>4.303705438449811</v>
@@ -4646,25 +4646,25 @@
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>10.61032575544672</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K6" t="n">
-        <v>63.86868055626314</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L6" t="n">
-        <v>117.1270353570795</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="M6" t="n">
-        <v>117.1270353570795</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="N6" t="n">
+        <v>57.56206023926622</v>
+      </c>
+      <c r="O6" t="n">
+        <v>108.6685623208577</v>
+      </c>
+      <c r="P6" t="n">
         <v>161.9269171216741</v>
-      </c>
-      <c r="O6" t="n">
-        <v>161.9269171216741</v>
-      </c>
-      <c r="P6" t="n">
-        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4688,10 +4688,10 @@
         <v>215.1852719224906</v>
       </c>
       <c r="X6" t="n">
-        <v>167.322850834276</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.9831357023339</v>
+        <v>160.8455567905485</v>
       </c>
     </row>
     <row r="7">
@@ -4746,19 +4746,19 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="V7" t="n">
         <v>126.8641862134551</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>280.5605516953941</v>
+        <v>543.1089199469646</v>
       </c>
       <c r="C8" t="n">
-        <v>280.5605516953941</v>
+        <v>543.1089199469646</v>
       </c>
       <c r="D8" t="n">
-        <v>280.5605516953941</v>
+        <v>371.2572136183639</v>
       </c>
       <c r="E8" t="n">
-        <v>199.4055072897619</v>
+        <v>199.4055072897632</v>
       </c>
       <c r="F8" t="n">
-        <v>27.55380096116247</v>
+        <v>27.55380096116257</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821329</v>
+        <v>127.7362978821341</v>
       </c>
       <c r="K8" t="n">
-        <v>296.1681552547931</v>
+        <v>127.7362978821341</v>
       </c>
       <c r="L8" t="n">
-        <v>419.6340807667205</v>
+        <v>296.1681552547957</v>
       </c>
       <c r="M8" t="n">
-        <v>452.174505662806</v>
+        <v>464.6000126274572</v>
       </c>
       <c r="N8" t="n">
-        <v>489.8552770325099</v>
+        <v>633.0318700001187</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1008996885932</v>
+        <v>655.2774926562043</v>
       </c>
       <c r="P8" t="n">
-        <v>680.5327570612535</v>
+        <v>680.5327570612587</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612535</v>
+        <v>680.5327570612587</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643525929</v>
+        <v>624.263964352599</v>
       </c>
       <c r="S8" t="n">
-        <v>624.2639643525929</v>
+        <v>624.263964352599</v>
       </c>
       <c r="T8" t="n">
-        <v>624.2639643525929</v>
+        <v>624.263964352599</v>
       </c>
       <c r="U8" t="n">
-        <v>624.2639643525929</v>
+        <v>624.263964352599</v>
       </c>
       <c r="V8" t="n">
-        <v>624.2639643525929</v>
+        <v>624.263964352599</v>
       </c>
       <c r="W8" t="n">
-        <v>624.2639643525929</v>
+        <v>624.263964352599</v>
       </c>
       <c r="X8" t="n">
-        <v>452.4122580239935</v>
+        <v>624.263964352599</v>
       </c>
       <c r="Y8" t="n">
-        <v>280.5605516953941</v>
+        <v>543.1089199469646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>640.1687841096463</v>
+        <v>471.2943968347158</v>
       </c>
       <c r="C9" t="n">
-        <v>468.3170777810469</v>
+        <v>471.2943968347158</v>
       </c>
       <c r="D9" t="n">
-        <v>319.3826681197956</v>
+        <v>322.3599871734646</v>
       </c>
       <c r="E9" t="n">
-        <v>160.1452131143401</v>
+        <v>163.1225321680091</v>
       </c>
       <c r="F9" t="n">
-        <v>13.61065514122507</v>
+        <v>16.58797419489403</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="J9" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="K9" t="n">
-        <v>182.0425125138853</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="L9" t="n">
-        <v>217.2786636729566</v>
+        <v>48.84680630029806</v>
       </c>
       <c r="M9" t="n">
-        <v>385.7105210456168</v>
+        <v>217.2786636729596</v>
       </c>
       <c r="N9" t="n">
-        <v>462.1955748859218</v>
+        <v>385.7105210456211</v>
       </c>
       <c r="O9" t="n">
-        <v>509.9446613829582</v>
+        <v>554.1423784182826</v>
       </c>
       <c r="P9" t="n">
-        <v>678.3765187556185</v>
+        <v>680.5327570612587</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612535</v>
+        <v>680.5327570612587</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612535</v>
+        <v>629.6635680484188</v>
       </c>
       <c r="S9" t="n">
-        <v>680.5327570612535</v>
+        <v>471.2943968347158</v>
       </c>
       <c r="T9" t="n">
-        <v>680.5327570612535</v>
+        <v>471.2943968347158</v>
       </c>
       <c r="U9" t="n">
-        <v>680.5327570612535</v>
+        <v>471.2943968347158</v>
       </c>
       <c r="V9" t="n">
-        <v>680.5327570612535</v>
+        <v>471.2943968347158</v>
       </c>
       <c r="W9" t="n">
-        <v>680.5327570612535</v>
+        <v>471.2943968347158</v>
       </c>
       <c r="X9" t="n">
-        <v>680.5327570612535</v>
+        <v>471.2943968347158</v>
       </c>
       <c r="Y9" t="n">
-        <v>680.5327570612535</v>
+        <v>471.2943968347158</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>480.5765710638608</v>
+        <v>480.5765710638609</v>
       </c>
       <c r="C10" t="n">
-        <v>311.6403881359539</v>
+        <v>311.640388135954</v>
       </c>
       <c r="D10" t="n">
-        <v>161.5237487236182</v>
+        <v>161.5237487236183</v>
       </c>
       <c r="E10" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="F10" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122507</v>
+        <v>13.61065514122518</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724057941</v>
+        <v>68.90447724058032</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340614</v>
+        <v>195.1879671340631</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694236</v>
+        <v>338.7253240694262</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004835</v>
+        <v>484.284299900487</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689118</v>
+        <v>602.7152779689163</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612535</v>
+        <v>680.5327570612587</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.374312787354</v>
+        <v>650.3743127873597</v>
       </c>
       <c r="R10" t="n">
-        <v>650.374312787354</v>
+        <v>650.3743127873597</v>
       </c>
       <c r="S10" t="n">
-        <v>650.374312787354</v>
+        <v>650.3743127873597</v>
       </c>
       <c r="T10" t="n">
-        <v>650.374312787354</v>
+        <v>650.3743127873597</v>
       </c>
       <c r="U10" t="n">
-        <v>650.374312787354</v>
+        <v>650.3743127873597</v>
       </c>
       <c r="V10" t="n">
-        <v>650.374312787354</v>
+        <v>650.3743127873597</v>
       </c>
       <c r="W10" t="n">
-        <v>650.374312787354</v>
+        <v>650.3743127873597</v>
       </c>
       <c r="X10" t="n">
-        <v>650.374312787354</v>
+        <v>650.3743127873597</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.374312787354</v>
+        <v>650.3743127873597</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5071,7 +5071,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>378.6527890600109</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>378.6527890600109</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5269,7 +5269,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5834,16 +5834,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,31 +6384,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6420,16 +6420,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6530,22 +6530,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
         <v>1072.713683962606</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>945.4026036630049</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>776.466420735098</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>626.3497813227623</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>478.4366877403692</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F31" t="n">
-        <v>331.5467402424588</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,73 +6679,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>555.8158034133959</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133959</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133959</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310027</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330922</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1186.246398285183</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>958.256847387166</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y34" t="n">
-        <v>737.4642682436357</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400692</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429808</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429808</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429808</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429808</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578606</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000585</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611857</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138393</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.502065570309</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
         <v>1072.713683962606</v>
@@ -7268,10 +7268,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400692</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427011</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>241.7297566303652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138393</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.502065570309</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048568</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>594.8179559048568</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>446.9048623224636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>446.9048623224636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>279.7087630373434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>137.9969318795414</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630037</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7633,58 +7633,58 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438167</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876682</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406115</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282757</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458824</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797193</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614383</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179081</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>262.5442413612734</v>
       </c>
       <c r="N2" t="n">
-        <v>261.34821032935</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>264.993021668346</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
         <v>268.4117974997384</v>
@@ -8060,22 +8060,22 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>180.3309306186853</v>
       </c>
       <c r="L3" t="n">
         <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>180.0744745527947</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>181.3015543884808</v>
+        <v>179.2618479563565</v>
       </c>
       <c r="P3" t="n">
-        <v>172.9650138997595</v>
+        <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
         <v>184.1458149818875</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>253.8036932114795</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>267.3451747559029</v>
       </c>
       <c r="M5" t="n">
-        <v>259.4212368511231</v>
+        <v>257.2476482458454</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>260.1731688314972</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
         <v>264.7836813017771</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
         <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>175.9947778369091</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>157.002365647822</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>176.2963480628989</v>
       </c>
       <c r="P6" t="n">
         <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,25 +8455,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>199.5416738613675</v>
+        <v>29.4084845960524</v>
       </c>
       <c r="L8" t="n">
-        <v>123.9223747629407</v>
+        <v>169.3425079555992</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>137.2640732086602</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>132.0718040433891</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>185.8047817831495</v>
+        <v>41.18196060374764</v>
       </c>
       <c r="Q8" t="n">
-        <v>60.42805331804686</v>
+        <v>60.42805331804539</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>51.06167039641051</v>
+        <v>51.06167039640981</v>
       </c>
       <c r="K9" t="n">
-        <v>178.4614495570661</v>
+        <v>8.328260291751519</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>109.0465280602392</v>
+        <v>109.0465280602387</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>92.87555912359056</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>121.901788763256</v>
       </c>
       <c r="P9" t="n">
-        <v>150.9515879477178</v>
+        <v>108.4854478167223</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.77905671056057</v>
+        <v>37.60103822001919</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.675860985380093e-12</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>23.83108638657407</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>7.065188669821225</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>166.0397529241845</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>98.55338150863673</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>125.50548976104</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>70.46607471595068</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>19.50758019582709</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>41.54258064659206</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405106</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>46.45968844823369</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462241</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>37.52737017531182</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610418</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>708500.056169365</v>
+        <v>708500.0561693647</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244615</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244614</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="O2" t="n">
-        <v>746610.6047132557</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132559</v>
+        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.397554377</v>
+        <v>325486.3975543804</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756739</v>
+        <v>1098807.963756736</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,28 +26383,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573661</v>
+        <v>13208.50450573666</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317184398</v>
+        <v>852.8104317183228</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031373</v>
+        <v>29443.81509031403</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299116</v>
+        <v>249845.7249299113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.152526190371385e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278908</v>
+        <v>306360.6503278899</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719625</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719625</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719629</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719647</v>
+        <v>7507.368461719631</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719623</v>
+        <v>7507.368461719718</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719462</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719519</v>
+        <v>7507.368461719693</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719481</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719567</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719592</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241475</v>
+        <v>52100.52571241491</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>290960.1333417167</v>
       </c>
       <c r="C6" t="n">
-        <v>320517.7436398393</v>
+        <v>320517.7436398392</v>
       </c>
       <c r="D6" t="n">
-        <v>75516.06352977949</v>
+        <v>75516.06352977615</v>
       </c>
       <c r="E6" t="n">
-        <v>-461174.6365834674</v>
+        <v>-460861.9952545429</v>
       </c>
       <c r="F6" t="n">
-        <v>637633.3271732713</v>
+        <v>637945.9685021931</v>
       </c>
       <c r="G6" t="n">
-        <v>637633.3271732714</v>
+        <v>637945.9685021931</v>
       </c>
       <c r="H6" t="n">
-        <v>637633.3271732714</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="I6" t="n">
-        <v>637633.3271732714</v>
+        <v>637945.9685021929</v>
       </c>
       <c r="J6" t="n">
-        <v>624424.8226675348</v>
+        <v>624737.4639964561</v>
       </c>
       <c r="K6" t="n">
-        <v>636780.5167415533</v>
+        <v>637093.1580704744</v>
       </c>
       <c r="L6" t="n">
-        <v>608189.5120829581</v>
+        <v>608502.1534118786</v>
       </c>
       <c r="M6" t="n">
-        <v>387787.6022433602</v>
+        <v>388100.2435722816</v>
       </c>
       <c r="N6" t="n">
-        <v>637633.3271732718</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="O6" t="n">
-        <v>637633.3271732718</v>
+        <v>637945.968502193</v>
       </c>
       <c r="P6" t="n">
-        <v>637633.3271732721</v>
+        <v>637945.9685021926</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075091</v>
+        <v>372.8820094075126</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653134</v>
+        <v>170.1331892653147</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-3.27836717816564e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.940657737964231e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883838</v>
+        <v>337.8607486883872</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341646</v>
+        <v>995.0934909341612</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846907</v>
+        <v>116.3368712846921</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.575098834335</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546143</v>
+        <v>3.313583785545688</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846914</v>
+        <v>116.3368712846923</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834335</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846907</v>
+        <v>116.3368712846921</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834335</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>331.4476358771852</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>356.3933115466349</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27432,19 +27432,19 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>172.208126091823</v>
       </c>
       <c r="U2" t="n">
-        <v>226.1803807965923</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.2695242750584</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>351.4492755978406</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>113.1798881763775</v>
       </c>
       <c r="F3" t="n">
-        <v>94.58647819830733</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>86.81128248461911</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>67.29218149826258</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>37.20960569321311</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>46.60172783196103</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.2902510084009</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.1999615822278</v>
       </c>
     </row>
     <row r="4">
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>311.4765737903849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>300.8867236400603</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>359.492248864379</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>361.3656305466968</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27666,10 +27666,10 @@
         <v>87.22896370465668</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>152.0155225457752</v>
       </c>
       <c r="T5" t="n">
-        <v>197.1337431616672</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
@@ -27697,19 +27697,19 @@
         <v>112.7368656692447</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>118.9121810076931</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>110.2612835780685</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>83.47187043311666</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
         <v>111.5079271034444</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3891883261451</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>151.8863777966817</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27833,7 +27833,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>198.3413253432054</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>184.5498523553683</v>
       </c>
       <c r="E8" t="n">
-        <v>301.5868761106859</v>
+        <v>211.7971808069471</v>
       </c>
       <c r="F8" t="n">
-        <v>236.7428564763981</v>
+        <v>236.7428564763968</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>324.1229312460399</v>
+        <v>324.1229312460397</v>
       </c>
       <c r="I8" t="n">
-        <v>152.6847994490672</v>
+        <v>152.6847994490667</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782107</v>
+        <v>174.8610794782104</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5338757101359</v>
+        <v>216.5338757101358</v>
       </c>
       <c r="U8" t="n">
         <v>251.2257310555647</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>199.5979114131557</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.1047493907402</v>
+        <v>305.8944446944756</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126.5728504277762</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>2.575309723002363</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5414690675039</v>
+        <v>133.5939232043717</v>
       </c>
       <c r="H9" t="n">
-        <v>104.4893481542763</v>
+        <v>104.4893481542762</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642501</v>
+        <v>61.78225762642475</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271198</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.7854795015661</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>196.9319120283546</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.732215875679</v>
+        <v>11.73221587567349</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416838</v>
+        <v>135.2292669416837</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712854</v>
+        <v>45.81978032712811</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160295</v>
+        <v>147.0593845160292</v>
       </c>
       <c r="S10" t="n">
-        <v>212.2983224298543</v>
+        <v>212.2983224298542</v>
       </c>
       <c r="T10" t="n">
         <v>225.0725641098958</v>
@@ -28800,22 +28800,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29037,19 +29037,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.42790015274759e-12</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29748,19 +29748,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.191971124519144e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29988,22 +29988,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.222693443261255e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>5.785973998768142e-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.929428045903998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30893,37 +30893,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-9.549168993550324e-14</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.055663493129292e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>-1.055663493129292e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-1.055663493129292e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-1.055663493129292e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.055663493129292e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>-1.055663493129292e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.055663493129292e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.055663493129292e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>-1.055663493129292e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.055663493129292e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397021</v>
+        <v>1.499023153397034</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972724</v>
+        <v>15.35187086972738</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133869</v>
+        <v>57.79109012133922</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656305</v>
+        <v>127.2277163656317</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489264</v>
+        <v>190.6813664489281</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797005</v>
+        <v>236.5570962797027</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839248</v>
+        <v>263.2153492839272</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185141</v>
+        <v>267.4744488185165</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369224</v>
+        <v>252.5685373369247</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374335</v>
+        <v>215.5614032374354</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564026</v>
+        <v>161.8776365564041</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957567</v>
+        <v>94.16301315957654</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803464</v>
+        <v>34.15899010803495</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995461</v>
+        <v>6.561973853995521</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717616</v>
+        <v>0.1199218522717627</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067179</v>
+        <v>0.8020480957067252</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220144</v>
+        <v>7.746096082220215</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499007</v>
+        <v>27.61437522499032</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025619</v>
+        <v>75.77595627025688</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826063</v>
+        <v>129.5131786826075</v>
       </c>
       <c r="L9" t="n">
-        <v>174.146451657724</v>
+        <v>174.1464516577256</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270925</v>
+        <v>203.2206951270943</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250555</v>
+        <v>208.5993422250574</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465014</v>
+        <v>190.8276449465031</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319258</v>
+        <v>153.1560087319272</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660014</v>
+        <v>102.3807358660023</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993115</v>
+        <v>49.7973370299316</v>
       </c>
       <c r="S9" t="n">
-        <v>14.8976916022717</v>
+        <v>14.89769160227184</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666466988</v>
+        <v>3.232816666467018</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0527663220859683</v>
+        <v>0.05276632208596878</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987869</v>
+        <v>0.672410180898793</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172855</v>
+        <v>5.97833779017291</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557443</v>
+        <v>20.22120798557462</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954423</v>
+        <v>47.53939978954467</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078632</v>
+        <v>78.12183738078703</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017058</v>
+        <v>99.96905544017149</v>
       </c>
       <c r="M10" t="n">
-        <v>105.403352265798</v>
+        <v>105.403352265799</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369935</v>
+        <v>102.8970961369945</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013039</v>
+        <v>95.04212266013126</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979507</v>
+        <v>81.32495496979581</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053388</v>
+        <v>56.30518342053439</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686113999</v>
+        <v>30.23400686114027</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711795</v>
+        <v>11.71827560711805</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385725</v>
+        <v>2.873025318385751</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811569</v>
+        <v>0.03667691895811603</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>409.0029787211712</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940682</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940682</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.446970176038</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,16 +34704,16 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="N2" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>50.48273419507654</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="P3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="P3" t="n">
-        <v>48.44302776295223</v>
       </c>
       <c r="Q3" t="n">
         <v>50.48273419507654</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>53.79631798062264</v>
+      </c>
+      <c r="M5" t="n">
         <v>51.62272937534495</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>53.79631798062264</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>45.25240582282282</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>51.62272937534495</v>
       </c>
       <c r="P6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.278427011018</v>
+        <v>115.2784270110191</v>
       </c>
       <c r="K8" t="n">
-        <v>170.1331892653134</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>124.713056072654</v>
+        <v>170.1331892653147</v>
       </c>
       <c r="M8" t="n">
-        <v>32.86911605665202</v>
+        <v>170.1331892653147</v>
       </c>
       <c r="N8" t="n">
-        <v>38.06138522192316</v>
+        <v>170.1331892653147</v>
       </c>
       <c r="O8" t="n">
-        <v>22.47032591523572</v>
+        <v>22.47032591523802</v>
       </c>
       <c r="P8" t="n">
-        <v>170.1331892653134</v>
+        <v>25.51036808591353</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>170.1331892653134</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>35.5920718778498</v>
+        <v>35.5920718778514</v>
       </c>
       <c r="M9" t="n">
-        <v>170.1331892653134</v>
+        <v>170.1331892653147</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172222</v>
+        <v>170.1331892653147</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23140050205697</v>
+        <v>170.1331892653147</v>
       </c>
       <c r="P9" t="n">
-        <v>170.1331892653134</v>
+        <v>127.6670491343193</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.178018490540447</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490347</v>
+        <v>55.85234555490418</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004867</v>
+        <v>127.5590807004876</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276386</v>
+        <v>144.9872292276395</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162221</v>
+        <v>147.0292685162231</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741701</v>
+        <v>119.6272505741709</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468856</v>
+        <v>78.6035142346893</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37244,10 +37244,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>266.8689447991529</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37475,16 +37475,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962379</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37712,16 +37712,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396426</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962379</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
@@ -37955,10 +37955,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961638</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010451</v>
@@ -38192,10 +38192,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
